--- a/app/config/tables/MIFGRAVIDA/forms/MIFGRAVIDA/MIFGRAVIDA.xlsx
+++ b/app/config/tables/MIFGRAVIDA/forms/MIFGRAVIDA/MIFGRAVIDA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74444ED3-BCB3-4935-88F8-F42CAD008D11}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D195607-8ACC-496C-ADB7-9588CE35FE2B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1246,8 +1246,8 @@
   <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/app/config/tables/MIFGRAVIDA/forms/MIFGRAVIDA/MIFGRAVIDA.xlsx
+++ b/app/config/tables/MIFGRAVIDA/forms/MIFGRAVIDA/MIFGRAVIDA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D195607-8ACC-496C-ADB7-9588CE35FE2B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A163B0-50DF-416E-9CA9-9788E6A0E96A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="model" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>

--- a/app/config/tables/MIFGRAVIDA/forms/MIFGRAVIDA/MIFGRAVIDA.xlsx
+++ b/app/config/tables/MIFGRAVIDA/forms/MIFGRAVIDA/MIFGRAVIDA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A163B0-50DF-416E-9CA9-9788E6A0E96A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6382F055-7AD2-436C-8432-28AC23A19F14}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,6 @@
     <sheet name="model" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="230">
   <si>
     <t>setting_name</t>
   </si>
@@ -40,9 +39,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>display.tittle.text</t>
-  </si>
-  <si>
     <t>form_id</t>
   </si>
   <si>
@@ -73,9 +69,6 @@
     <t>display.prompt.text</t>
   </si>
   <si>
-    <t>display.prompt.text.portuguese</t>
-  </si>
-  <si>
     <t>begin screen</t>
   </si>
   <si>
@@ -91,18 +84,12 @@
     <t>display.title.text</t>
   </si>
   <si>
-    <t>display.title.text.portuguese</t>
-  </si>
-  <si>
     <t>isSessionVariable</t>
   </si>
   <si>
     <t>display.locale.text</t>
   </si>
   <si>
-    <t>display.locale.text.portuguese</t>
-  </si>
-  <si>
     <t>English</t>
   </si>
   <si>
@@ -118,9 +105,6 @@
     <t>default</t>
   </si>
   <si>
-    <t>portuguese</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -716,6 +700,27 @@
   </si>
   <si>
     <t>vac. Hist</t>
+  </si>
+  <si>
+    <t>GRVAC</t>
+  </si>
+  <si>
+    <t>data('GRVAC') == '1'</t>
+  </si>
+  <si>
+    <t>Vacina anti-tetánica durante esta gravidez?</t>
+  </si>
+  <si>
+    <t>display.title.text.english</t>
+  </si>
+  <si>
+    <t>display.prompt.text.english</t>
+  </si>
+  <si>
+    <t>display.locale.text.english</t>
+  </si>
+  <si>
+    <t>english</t>
   </si>
 </sst>
 </file>
@@ -826,7 +831,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -844,6 +849,7 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{C28CC074-D3A0-48A2-81F3-B6A5CA836B7C}"/>
@@ -1128,9 +1134,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="A6:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1151,29 +1157,29 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>226</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>21</v>
+        <v>228</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>10072019</v>
@@ -1181,59 +1187,59 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>229</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1244,11 +1250,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G68" sqref="G68"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1266,90 +1272,90 @@
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="I1" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1357,20 +1363,20 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1379,555 +1385,596 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" t="s">
-        <v>96</v>
-      </c>
-      <c r="G20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F21" t="s">
-        <v>98</v>
-      </c>
-      <c r="G21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" t="s">
+        <v>108</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="G25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>44</v>
-      </c>
-      <c r="F30" t="s">
-        <v>113</v>
-      </c>
-      <c r="G30" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E34" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F34" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G34" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H34" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E36" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F36" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G36" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H36" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F39" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="I39" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F41" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="I41" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E45" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F45" t="s">
-        <v>145</v>
-      </c>
-      <c r="G45" t="s">
-        <v>146</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H45" s="6"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E48" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F48" t="s">
-        <v>147</v>
-      </c>
-      <c r="G48" t="s">
-        <v>170</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H48" s="6"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>44</v>
+        <v>32</v>
+      </c>
+      <c r="E49" t="s">
+        <v>27</v>
       </c>
       <c r="F49" t="s">
-        <v>226</v>
-      </c>
-      <c r="G49" t="s">
-        <v>227</v>
+        <v>223</v>
+      </c>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>15</v>
+        <v>33</v>
+      </c>
+      <c r="C50" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>14</v>
-      </c>
+      <c r="D51" t="s">
+        <v>39</v>
+      </c>
+      <c r="F51" t="s">
+        <v>221</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="H51" s="6"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D52" t="s">
-        <v>42</v>
-      </c>
-      <c r="G52" t="s">
-        <v>168</v>
-      </c>
-      <c r="H52" t="s">
-        <v>61</v>
-      </c>
+      <c r="B52" t="s">
+        <v>34</v>
+      </c>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D53" t="s">
-        <v>44</v>
-      </c>
-      <c r="F53" t="s">
-        <v>225</v>
-      </c>
-      <c r="G53" t="s">
-        <v>169</v>
-      </c>
-      <c r="H53" t="s">
-        <v>58</v>
+      <c r="B53" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>38</v>
-      </c>
-      <c r="C54" t="s">
-        <v>172</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>44</v>
-      </c>
-      <c r="F55" t="s">
-        <v>224</v>
+        <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="H55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+      <c r="D56" t="s">
         <v>39</v>
+      </c>
+      <c r="F56" t="s">
+        <v>220</v>
+      </c>
+      <c r="G56" t="s">
+        <v>164</v>
+      </c>
+      <c r="H56" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>15</v>
+        <v>33</v>
+      </c>
+      <c r="C57" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>14</v>
+      <c r="D58" t="s">
+        <v>39</v>
+      </c>
+      <c r="F58" t="s">
+        <v>219</v>
+      </c>
+      <c r="G58" t="s">
+        <v>165</v>
+      </c>
+      <c r="H58" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D59" t="s">
-        <v>42</v>
-      </c>
-      <c r="G59" t="s">
-        <v>171</v>
-      </c>
-      <c r="H59" t="s">
-        <v>59</v>
+      <c r="B59" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D60" t="s">
-        <v>44</v>
-      </c>
-      <c r="F60" t="s">
-        <v>174</v>
-      </c>
-      <c r="G60" t="s">
-        <v>169</v>
-      </c>
-      <c r="H60" t="s">
-        <v>58</v>
+      <c r="B60" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>38</v>
-      </c>
-      <c r="C61" t="s">
-        <v>172</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>44</v>
-      </c>
-      <c r="F62" t="s">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="G62" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H62" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
+      <c r="D63" t="s">
         <v>39</v>
+      </c>
+      <c r="F63" t="s">
+        <v>169</v>
+      </c>
+      <c r="G63" t="s">
+        <v>164</v>
+      </c>
+      <c r="H63" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>15</v>
+        <v>33</v>
+      </c>
+      <c r="C64" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>14</v>
+      <c r="D65" t="s">
+        <v>39</v>
+      </c>
+      <c r="F65" t="s">
+        <v>168</v>
+      </c>
+      <c r="G65" t="s">
+        <v>165</v>
+      </c>
+      <c r="H65" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D66" t="s">
-        <v>42</v>
-      </c>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6" t="s">
-        <v>60</v>
+      <c r="B66" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D67" t="s">
-        <v>44</v>
-      </c>
-      <c r="F67" t="s">
-        <v>176</v>
-      </c>
-      <c r="G67" t="s">
-        <v>169</v>
-      </c>
-      <c r="H67" t="s">
-        <v>58</v>
+      <c r="B67" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>38</v>
-      </c>
-      <c r="C68" t="s">
-        <v>172</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
-        <v>44</v>
-      </c>
-      <c r="F69" t="s">
-        <v>175</v>
-      </c>
-      <c r="G69" t="s">
-        <v>170</v>
-      </c>
-      <c r="H69" t="s">
-        <v>57</v>
+        <v>37</v>
+      </c>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
+      <c r="D70" t="s">
         <v>39</v>
+      </c>
+      <c r="F70" t="s">
+        <v>171</v>
+      </c>
+      <c r="G70" t="s">
+        <v>164</v>
+      </c>
+      <c r="H70" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>15</v>
+        <v>33</v>
+      </c>
+      <c r="C71" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>14</v>
+      <c r="D72" t="s">
+        <v>39</v>
+      </c>
+      <c r="F72" t="s">
+        <v>170</v>
+      </c>
+      <c r="G72" t="s">
+        <v>165</v>
+      </c>
+      <c r="H72" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D73" t="s">
-        <v>37</v>
-      </c>
-      <c r="E73" t="s">
-        <v>32</v>
-      </c>
-      <c r="F73" t="s">
-        <v>177</v>
-      </c>
-      <c r="G73" t="s">
-        <v>195</v>
+      <c r="B73" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E76" t="s">
-        <v>178</v>
+        <v>27</v>
       </c>
       <c r="F76" t="s">
-        <v>193</v>
-      </c>
-      <c r="G76" t="s">
-        <v>194</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="H76" s="6"/>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E79" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="F79" t="s">
-        <v>196</v>
-      </c>
-      <c r="G79" t="s">
-        <v>197</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="H79" s="6"/>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>32</v>
+      </c>
+      <c r="E82" t="s">
+        <v>193</v>
+      </c>
+      <c r="F82" t="s">
+        <v>191</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H82" s="6"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="14"/>
+      <c r="B84" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1957,83 +2004,83 @@
   <sheetData>
     <row r="1" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2060,30 +2107,30 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2097,7 +2144,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2110,611 +2157,611 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B2" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B3" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B4" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B6" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B8" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B9" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B10" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B11" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B12" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B13" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D13" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B14" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B15" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B16" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D16" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B17" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D17" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B18" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D18" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B19" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D19" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B20" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D20" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B21" t="str">
         <f>"88"</f>
         <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D21" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B22" t="str">
         <f>"99"</f>
         <v>99</v>
       </c>
       <c r="C22" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D22" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B23" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C23" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D23" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" t="s">
         <v>148</v>
       </c>
-      <c r="B24" t="s">
-        <v>152</v>
-      </c>
-      <c r="C24" t="s">
-        <v>153</v>
-      </c>
       <c r="D24" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B25" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C25" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D25" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B26" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C26" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D26" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B27" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C27" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D27" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B28" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C28" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D28" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B29" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B30" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C30" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D30" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>173</v>
+      </c>
+      <c r="B31" t="s">
+        <v>176</v>
+      </c>
+      <c r="C31" t="s">
+        <v>177</v>
+      </c>
+      <c r="D31" t="s">
         <v>178</v>
-      </c>
-      <c r="B31" t="s">
-        <v>181</v>
-      </c>
-      <c r="C31" t="s">
-        <v>182</v>
-      </c>
-      <c r="D31" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B32" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C32" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D32" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B33" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C33" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D33" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B34" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C34" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D34" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B35" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C35" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D35" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>193</v>
+      </c>
+      <c r="B36" t="s">
+        <v>197</v>
+      </c>
+      <c r="C36" t="s">
         <v>198</v>
       </c>
-      <c r="B36" t="s">
-        <v>202</v>
-      </c>
-      <c r="C36" t="s">
-        <v>203</v>
-      </c>
       <c r="D36" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B37" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C37" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D37" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B38" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C38" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D38" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B39" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C39" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D39" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B40" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C40" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D40" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B41" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C41" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D41" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B42" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C42" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D42" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2741,13 +2788,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/MIFGRAVIDA/forms/MIFGRAVIDA/MIFGRAVIDA.xlsx
+++ b/app/config/tables/MIFGRAVIDA/forms/MIFGRAVIDA/MIFGRAVIDA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6382F055-7AD2-436C-8432-28AC23A19F14}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E787E073-5983-4345-AC79-B196450B6AB1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="248">
   <si>
     <t>setting_name</t>
   </si>
@@ -147,9 +147,6 @@
     <t>note</t>
   </si>
   <si>
-    <t>NCICA</t>
-  </si>
-  <si>
     <t>integer</t>
   </si>
   <si>
@@ -264,9 +261,6 @@
     <t>pregnant</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>Still pregnant</t>
   </si>
   <si>
@@ -279,12 +273,6 @@
     <t>Gravidez terminou</t>
   </si>
   <si>
-    <t>data('test') == '1'</t>
-  </si>
-  <si>
-    <t>data('test') == '2'</t>
-  </si>
-  <si>
     <t>OUTSTATUS</t>
   </si>
   <si>
@@ -721,6 +709,72 @@
   </si>
   <si>
     <t>english</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>linked_ses</t>
+  </si>
+  <si>
+    <t>SES</t>
+  </si>
+  <si>
+    <t>async_assign_num_value</t>
+  </si>
+  <si>
+    <t>SES_ESTADO</t>
+  </si>
+  <si>
+    <t>data('SES') != '1'</t>
+  </si>
+  <si>
+    <t>Visit</t>
+  </si>
+  <si>
+    <t>Visita</t>
+  </si>
+  <si>
+    <t>PREGDIA</t>
+  </si>
+  <si>
+    <t>GRAVIDA_ESTADO</t>
+  </si>
+  <si>
+    <t>If hvis pregdia != today</t>
+  </si>
+  <si>
+    <t>{ID: data('ID'), SESDATA: data('PREGDIA')}</t>
+  </si>
+  <si>
+    <t>data('GRAVIDA_ESTADO') != '2'</t>
+  </si>
+  <si>
+    <t>ESTADOVIS</t>
+  </si>
+  <si>
+    <t>data('ESTADOVIS') != '2' || data('ESTADOVIS') != '3'</t>
+  </si>
+  <si>
+    <t>data('GRAVIDA_ESTADO') == '2' || data('ESTADOVIS') == '2' || data('ESTADOVIS') == '3'</t>
+  </si>
+  <si>
+    <t>Moved before birth</t>
+  </si>
+  <si>
+    <t>Never pregnant</t>
+  </si>
+  <si>
+    <t>Mudou antes de parto</t>
+  </si>
+  <si>
+    <t>Enganou</t>
+  </si>
+  <si>
+    <t>VISITID</t>
+  </si>
+  <si>
+    <t>text</t>
   </si>
 </sst>
 </file>
@@ -730,7 +784,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-406]General"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -769,8 +823,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -807,6 +868,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -826,12 +893,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -850,11 +918,21 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{C28CC074-D3A0-48A2-81F3-B6A5CA836B7C}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{322DA532-9927-4EA6-AC2F-DB026E3AA22C}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{4FFD6DDF-C310-425B-8BD3-A1100949F6BF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1134,17 +1212,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="A6:F7"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1157,13 +1235,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>18</v>
@@ -1174,7 +1252,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1190,7 +1268,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1198,10 +1276,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1217,7 +1295,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -1228,18 +1306,18 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="5" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>38</v>
+      <c r="B9" s="15" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -1250,27 +1328,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="G1:H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>36</v>
       </c>
@@ -1290,7 +1369,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>11</v>
@@ -1298,251 +1377,277 @@
       <c r="I1" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" t="s">
+      <c r="B2" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="E3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="E4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" t="s">
+      <c r="F4" t="s">
+        <v>235</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" t="s">
         <v>33</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D19" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E19" t="s">
+        <v>227</v>
+      </c>
+      <c r="F19" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="H24" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" t="s">
-        <v>91</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" t="s">
-        <v>94</v>
-      </c>
-      <c r="F21" t="s">
-        <v>93</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" t="s">
-        <v>104</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>39</v>
-      </c>
-      <c r="F30" t="s">
-        <v>108</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>34</v>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" t="s">
-        <v>112</v>
-      </c>
-      <c r="F34" t="s">
-        <v>112</v>
-      </c>
-      <c r="G34" t="s">
-        <v>113</v>
-      </c>
-      <c r="H34" t="s">
-        <v>114</v>
+      <c r="B34" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -1550,162 +1655,156 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>218</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" t="s">
-        <v>115</v>
-      </c>
-      <c r="F36" t="s">
-        <v>115</v>
-      </c>
-      <c r="G36" t="s">
-        <v>116</v>
-      </c>
-      <c r="H36" t="s">
-        <v>117</v>
+      <c r="B36" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>118</v>
+      <c r="D37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" t="s">
+        <v>104</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" t="s">
-        <v>218</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
-        <v>110</v>
-      </c>
-      <c r="F39" t="s">
-        <v>137</v>
-      </c>
-      <c r="I39" t="s">
-        <v>138</v>
+      <c r="B39" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" t="s">
+        <v>108</v>
+      </c>
+      <c r="G41" t="s">
+        <v>109</v>
+      </c>
+      <c r="H41" t="s">
         <v>110</v>
-      </c>
-      <c r="F41" t="s">
-        <v>137</v>
-      </c>
-      <c r="I41" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="C42" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>13</v>
+      <c r="D43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" t="s">
+        <v>111</v>
+      </c>
+      <c r="F43" t="s">
+        <v>111</v>
+      </c>
+      <c r="G43" t="s">
+        <v>112</v>
+      </c>
+      <c r="H43" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D45" t="s">
-        <v>32</v>
-      </c>
-      <c r="E45" t="s">
-        <v>27</v>
-      </c>
-      <c r="F45" t="s">
-        <v>140</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="H45" s="6"/>
+      <c r="B45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>13</v>
+      <c r="D46" t="s">
+        <v>106</v>
+      </c>
+      <c r="F46" t="s">
+        <v>133</v>
+      </c>
+      <c r="I46" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E48" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="F48" t="s">
-        <v>142</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="H48" s="6"/>
+        <v>133</v>
+      </c>
+      <c r="I48" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E49" t="s">
-        <v>27</v>
-      </c>
-      <c r="F49" t="s">
-        <v>223</v>
-      </c>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6" t="s">
-        <v>225</v>
+      <c r="B49" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>33</v>
-      </c>
-      <c r="C50" t="s">
-        <v>224</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D51" t="s">
-        <v>39</v>
-      </c>
-      <c r="F51" t="s">
-        <v>221</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="H51" s="6"/>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>34</v>
-      </c>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
+      <c r="D52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" t="s">
+        <v>136</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
@@ -1719,27 +1818,34 @@
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>37</v>
-      </c>
-      <c r="G55" t="s">
-        <v>163</v>
-      </c>
-      <c r="H55" t="s">
-        <v>56</v>
+        <v>32</v>
+      </c>
+      <c r="E55" t="s">
+        <v>139</v>
+      </c>
+      <c r="F55" t="s">
+        <v>138</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="E56" t="s">
+        <v>27</v>
       </c>
       <c r="F56" t="s">
-        <v>220</v>
-      </c>
-      <c r="G56" t="s">
-        <v>164</v>
-      </c>
-      <c r="H56" t="s">
-        <v>53</v>
+        <v>219</v>
+      </c>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
@@ -1747,27 +1853,29 @@
         <v>33</v>
       </c>
       <c r="C57" t="s">
-        <v>167</v>
+        <v>220</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F58" t="s">
-        <v>219</v>
-      </c>
-      <c r="G58" t="s">
-        <v>165</v>
-      </c>
-      <c r="H58" t="s">
-        <v>52</v>
+        <v>217</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>34</v>
       </c>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
@@ -1784,24 +1892,24 @@
         <v>37</v>
       </c>
       <c r="G62" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="H62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F63" t="s">
-        <v>169</v>
+        <v>216</v>
       </c>
       <c r="G63" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
@@ -1809,21 +1917,21 @@
         <v>33</v>
       </c>
       <c r="C64" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F65" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="G65" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
@@ -1845,23 +1953,25 @@
       <c r="D69" t="s">
         <v>37</v>
       </c>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6" t="s">
-        <v>55</v>
+      <c r="G69" t="s">
+        <v>162</v>
+      </c>
+      <c r="H69" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F70" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G70" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
@@ -1869,21 +1979,21 @@
         <v>33</v>
       </c>
       <c r="C71" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F72" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G72" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H72" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
@@ -1903,93 +2013,160 @@
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
-        <v>32</v>
-      </c>
-      <c r="E76" t="s">
-        <v>27</v>
-      </c>
-      <c r="F76" t="s">
-        <v>172</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="H76" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>13</v>
+      <c r="D77" t="s">
+        <v>38</v>
+      </c>
+      <c r="F77" t="s">
+        <v>167</v>
+      </c>
+      <c r="G77" t="s">
+        <v>160</v>
+      </c>
+      <c r="H77" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>12</v>
+        <v>33</v>
+      </c>
+      <c r="C78" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
-        <v>32</v>
-      </c>
-      <c r="E79" t="s">
-        <v>173</v>
+        <v>38</v>
       </c>
       <c r="F79" t="s">
-        <v>188</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="H79" s="6"/>
+        <v>166</v>
+      </c>
+      <c r="G79" t="s">
+        <v>161</v>
+      </c>
+      <c r="H79" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D82" t="s">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
         <v>32</v>
       </c>
-      <c r="E82" t="s">
-        <v>193</v>
-      </c>
-      <c r="F82" t="s">
-        <v>191</v>
-      </c>
-      <c r="G82" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="H82" s="6"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
+      <c r="E83" t="s">
+        <v>27</v>
+      </c>
+      <c r="F83" t="s">
+        <v>168</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="14"/>
-      <c r="B84" t="s">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>32</v>
+      </c>
+      <c r="E86" t="s">
+        <v>169</v>
+      </c>
+      <c r="F86" t="s">
+        <v>184</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>32</v>
+      </c>
+      <c r="E89" t="s">
+        <v>189</v>
+      </c>
+      <c r="F89" t="s">
+        <v>187</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="14"/>
+      <c r="B91" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB23FD29-3338-4879-B1BD-848935333D8A}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1997,90 +2174,119 @@
     <col min="1" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="12" t="s">
         <v>70</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
         <v>73</v>
       </c>
-      <c r="B3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" t="s">
-        <v>74</v>
-      </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>69</v>
-      </c>
       <c r="G3" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>71</v>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2090,47 +2296,55 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E9C5AA-9540-45DB-BCC0-5EA98DDA6B0B}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD2"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
         <v>46</v>
-      </c>
-      <c r="B2" t="s">
-        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2140,11 +2354,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF3D0A7-17A8-4B35-89BF-E7F3088D1597}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:D1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2163,7 +2377,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>16</v>
@@ -2216,552 +2430,582 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B8" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B9" t="str">
+        <f>"7"</f>
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" t="str">
+        <f>"8"</f>
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>243</v>
+      </c>
+      <c r="D10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" t="str">
+      <c r="C11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C12" t="s">
         <v>94</v>
       </c>
-      <c r="B11" t="str">
+      <c r="D12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C11" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" t="str">
+      <c r="C13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
       <c r="C14" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="D14" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B15" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D15" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B16" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D16" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B17" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" t="str">
+      <c r="C19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D18" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>115</v>
-      </c>
-      <c r="B19" t="str">
+      <c r="C20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
-      <c r="C19" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>115</v>
-      </c>
-      <c r="B20" t="str">
+      <c r="C21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
-      <c r="C20" t="s">
-        <v>131</v>
-      </c>
-      <c r="D20" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>115</v>
-      </c>
-      <c r="B21" t="str">
+      <c r="C22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" t="str">
         <f>"88"</f>
         <v>88</v>
       </c>
-      <c r="C21" t="s">
-        <v>133</v>
-      </c>
-      <c r="D21" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>115</v>
-      </c>
-      <c r="B22" t="str">
+      <c r="C23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" t="str">
         <f>"99"</f>
         <v>99</v>
       </c>
-      <c r="C22" t="s">
-        <v>135</v>
-      </c>
-      <c r="D22" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>143</v>
-      </c>
-      <c r="B23" t="s">
-        <v>144</v>
-      </c>
-      <c r="C23" t="s">
-        <v>145</v>
-      </c>
-      <c r="D23" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>143</v>
-      </c>
-      <c r="B24" t="s">
-        <v>147</v>
-      </c>
       <c r="C24" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="D24" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B25" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C25" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D25" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" t="s">
         <v>143</v>
       </c>
-      <c r="B26" t="s">
-        <v>153</v>
-      </c>
       <c r="C26" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D26" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B27" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C27" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D27" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B28" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C28" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D28" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B29" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="D29" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="B30" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="C30" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="D30" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="B31" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="C31" t="s">
-        <v>177</v>
+        <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B32" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C32" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D32" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>169</v>
+      </c>
+      <c r="B33" t="s">
+        <v>172</v>
+      </c>
+      <c r="C33" t="s">
         <v>173</v>
       </c>
-      <c r="B33" t="s">
-        <v>182</v>
-      </c>
-      <c r="C33" t="s">
-        <v>183</v>
-      </c>
       <c r="D33" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B34" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C34" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D34" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="B35" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="C35" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="D35" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="B36" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="C36" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="D36" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B37" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C37" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D37" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>189</v>
+      </c>
+      <c r="B38" t="s">
         <v>193</v>
       </c>
-      <c r="B38" t="s">
-        <v>203</v>
-      </c>
       <c r="C38" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D38" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B39" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C39" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D39" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B40" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C40" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D40" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B41" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C41" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D41" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B42" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C42" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D42" t="s">
-        <v>217</v>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>189</v>
+      </c>
+      <c r="B43" t="s">
+        <v>208</v>
+      </c>
+      <c r="C43" t="s">
+        <v>209</v>
+      </c>
+      <c r="D43" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>189</v>
+      </c>
+      <c r="B44" t="s">
+        <v>211</v>
+      </c>
+      <c r="C44" t="s">
+        <v>212</v>
+      </c>
+      <c r="D44" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2772,17 +3016,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2797,7 +3041,307 @@
         <v>17</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>167</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>217</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>226</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>239</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>234</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>246</v>
+      </c>
+      <c r="B28" t="s">
+        <v>247</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>228</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C23">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>